--- a/biology/Zoologie/Galerie_des_Pentatomidae/Galerie_des_Pentatomidae.xlsx
+++ b/biology/Zoologie/Galerie_des_Pentatomidae/Galerie_des_Pentatomidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galerie d'identification visuelle des Pentatomidae
 </t>
@@ -513,18 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acrosternum
+          <t>Acrosternum</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Acrosternum heegeri
 			Acrosternum hilare
-Aelia
-			Aelia acuminata Juvenile
-			Aelia acuminata Adulte
-Agonoscelis
-			Agonoscelis rutila
-Alcaeorrhynchus
-			Alcaeorrhynchus grandis
-Arma
-			Arma custos (juvénile)
 </t>
         </is>
       </c>
@@ -550,14 +559,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Banasa
-			Banasa calva
-			Banasa euchlora
+          <t>Aelia</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Aelia acuminata Juvenile
+			Aelia acuminata Adulte
 </t>
         </is>
       </c>
@@ -583,126 +598,483 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Agonoscelis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Agonoscelis rutila
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alcaeorrhynchus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Alcaeorrhynchus grandis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Arma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Arma custos (juvénile)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Banasa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Banasa calva
+			Banasa euchlora
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carpocoris
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Carpocoris</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Carpocoris fuscispinus
 			Carpocoris mediterraneus
 			Carpocoris pupureinpennis
-Chlorochroa
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chlorochroa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Chlorochroa sayi
-Codophila
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Codophila</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Codophila varia
-Cosmopepla
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cosmopepla</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Cosmopepla lintneriana
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolycoris
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dolycoris</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Dolycoris baccarum
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurydema
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Eurydema</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Eurydema dominulus
 			Eurydema gebleri
 			Eurydema oleracea
 			Eurydema ornata
 			Eurydema rugosa
-Euschistus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Euschistus</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Euschistus quadrator
 			Euschistus servus
 			Euschistus tristigmus
-Euthyrhynchus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Euthyrhynchus</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Euthyrhynchus floridanus
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graphosoma
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Graphosoma</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Graphosoma italicum Larve
 			Graphosoma italicum
 			Graphosoma semipunctatum
@@ -712,165 +1084,267 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halyomorpha
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Halyomorpha</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Halyomorpha halys
-Holcostethus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Holcostethus</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Holcostethus strictus
-Hymenarcys
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hymenarcys</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Hymenarcys nervosa
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loxa
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Loxa</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Loxa viridis
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Murgantia
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Murgantia</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Murgantia histrionica
 </t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nezara
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Nezara</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Nezara viridula
 </t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oebalus
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Oebalus</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Oebalus insularis (juvénile)
 			Oebalus ornatus
 			Oebalus pugnax
@@ -879,210 +1353,494 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palomena
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Palomena</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Palomena prasina Larve Stade V
 			Palomena prasina Adulte
 			Palomena viridissima
-Pentatoma
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Pentatoma</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Pentatoma rufipes
-Perillus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Perillus</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Perillus bioculatus
-Picromerus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Picromerus</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Picromerus bidens
 </t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Piezodorus</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Piezodorus guildinii
-Podisus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Piezodorus</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Podisus</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Podisus maculiventris
 			Podisus placidus
-Proxys
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Piezodorus</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Proxys</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Proxys punctulatus
 </t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhacognathus
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Rhacognathus</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Rhacognathus punctatus
-Rhaphigaster
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Rhaphigaster</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Rhaphigaster nebulosa
 </t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stiretrus
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Stiretrus</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Stiretrus anchorago
 </t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thyanta
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Thyanta</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Thyanta custator
-Troilus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Troilus</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Troilus luridus01
 </t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Pentatomidae</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zicrona
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Zicrona</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Zicrona caeruleus
  Portail de l’entomologie                     </t>
         </is>
